--- a/documentos/Backlog Projeto.xlsx
+++ b/documentos/Backlog Projeto.xlsx
@@ -1,36 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aluno\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean\OneDrive\Área de Trabalho\Bandtec1\Projeto PI\CyberLife\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303DF0E9-7088-4A03-851D-33B89C723AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="23">
   <si>
     <t>Requisitos</t>
   </si>
@@ -41,25 +31,10 @@
     <t>Funcionalidade</t>
   </si>
   <si>
-    <t>Utilização dos sensores de temperatura e umidade para captar dados</t>
-  </si>
-  <si>
     <t>Essencial</t>
   </si>
   <si>
     <t>Funcional</t>
-  </si>
-  <si>
-    <t>Site Institucional, mostrando as informações da solução para o cliente</t>
-  </si>
-  <si>
-    <t>Tela de login e cadastro para o cliente</t>
-  </si>
-  <si>
-    <t>Informações de alerta dos sensores para o cliente</t>
-  </si>
-  <si>
-    <t>Gráficos (dashboard) emitindo os dados dos sensores em tempo real</t>
   </si>
   <si>
     <t>Utilizar sensores de temperatura e umidade para captar dados</t>
@@ -119,7 +94,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,7 +104,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,24 +113,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF5B9BD5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -308,90 +271,6 @@
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -425,44 +304,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -499,13 +342,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -821,140 +664,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:F14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="93.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.5703125" customWidth="1"/>
-    <col min="5" max="5" width="20.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="6"/>
-    </row>
-    <row r="5" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C5" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="9"/>
-    </row>
-    <row r="6" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C6" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F6" s="9"/>
-    </row>
-    <row r="7" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C9" s="7"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C10" s="7"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C11" s="7"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-    </row>
-    <row r="12" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C12" s="7"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-    </row>
-    <row r="13" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-    </row>
-    <row r="14" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C14" s="10"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="12"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -965,157 +679,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="15" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="17" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="C14" s="12" t="s">
         <v>21</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/documentos/Backlog Projeto.xlsx
+++ b/documentos/Backlog Projeto.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jean\OneDrive\Área de Trabalho\Bandtec1\Projeto PI\CyberLife\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\cyberlife\CyberLife\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{303DF0E9-7088-4A03-851D-33B89C723AFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -37,9 +36,6 @@
     <t>Funcional</t>
   </si>
   <si>
-    <t>Utilizar sensores de temperatura e umidade para captar dados</t>
-  </si>
-  <si>
     <t xml:space="preserve">Funcional </t>
   </si>
   <si>
@@ -89,12 +85,15 @@
   </si>
   <si>
     <t>armazenar os dados em um banco de dados</t>
+  </si>
+  <si>
+    <t>Utilizar sensores de temperatura  para captar dados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,11 +663,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,106 +690,106 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="C10" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>3</v>
@@ -801,21 +800,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>13</v>
-      </c>
-      <c r="C12" s="8" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" s="8" t="s">
         <v>4</v>
@@ -823,13 +822,13 @@
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="12" t="s">
         <v>20</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
